--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,22 +1,396 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs_projects\SCBC_SS2020\SCBC_SnackShackServer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F58F49-8C6C-4F0B-B021-1D7985BE4BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Merchandise" sheetId="1" r:id="rId1"/>
     <sheet name="Snacks" sheetId="2" r:id="rId2"/>
     <sheet name="Drinks" sheetId="3" r:id="rId3"/>
     <sheet name="Frozen" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>YS Green Horse</t>
+  </si>
+  <si>
+    <t>YM Green Horse</t>
+  </si>
+  <si>
+    <t>YL Green Horse</t>
+  </si>
+  <si>
+    <t>S Green Horse</t>
+  </si>
+  <si>
+    <t>M Green Horse</t>
+  </si>
+  <si>
+    <t>L Green Horse</t>
+  </si>
+  <si>
+    <t>XL Green Horse</t>
+  </si>
+  <si>
+    <t>2XL Green Horse</t>
+  </si>
+  <si>
+    <t>YS Maroon Horse</t>
+  </si>
+  <si>
+    <t>YM Maroon Horse</t>
+  </si>
+  <si>
+    <t>YL Maroon Horse</t>
+  </si>
+  <si>
+    <t>S Maroon Horse</t>
+  </si>
+  <si>
+    <t>L Maroon Horse</t>
+  </si>
+  <si>
+    <t>YS Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>YM Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>YL Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>S Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>M Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>L Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>2XL Grey Circle SCBC</t>
+  </si>
+  <si>
+    <t>YS Navy Circle</t>
+  </si>
+  <si>
+    <t>YM Navy Circle</t>
+  </si>
+  <si>
+    <t>YL Navy Circle</t>
+  </si>
+  <si>
+    <t>S Navy Circle</t>
+  </si>
+  <si>
+    <t>M Navy Circle</t>
+  </si>
+  <si>
+    <t>L Navy Circle</t>
+  </si>
+  <si>
+    <t>YS Red Activities</t>
+  </si>
+  <si>
+    <t>YM Red Activities</t>
+  </si>
+  <si>
+    <t>YL Red Activities</t>
+  </si>
+  <si>
+    <t>S Red Activities</t>
+  </si>
+  <si>
+    <t>M Red Activities</t>
+  </si>
+  <si>
+    <t>L Red Activities</t>
+  </si>
+  <si>
+    <t>2XL Red Activities</t>
+  </si>
+  <si>
+    <t>YS Blue Activities</t>
+  </si>
+  <si>
+    <t>YM Blue Activities</t>
+  </si>
+  <si>
+    <t>YL Blue Activities</t>
+  </si>
+  <si>
+    <t>S Purple Compass</t>
+  </si>
+  <si>
+    <t>L Purple Compass</t>
+  </si>
+  <si>
+    <t>S Peach Pebbles</t>
+  </si>
+  <si>
+    <t>YM Red Pebbles</t>
+  </si>
+  <si>
+    <t>YM Yellow '74</t>
+  </si>
+  <si>
+    <t>S Gray Pebbles</t>
+  </si>
+  <si>
+    <t>YS Blue Pebbles</t>
+  </si>
+  <si>
+    <t>YM Blue Pebbles</t>
+  </si>
+  <si>
+    <t>Gray 1974 Hat</t>
+  </si>
+  <si>
+    <t>Blue 1974 Hat</t>
+  </si>
+  <si>
+    <t>Orange 1974 Hat</t>
+  </si>
+  <si>
+    <t>Brown 1974 Hat</t>
+  </si>
+  <si>
+    <t>Gray Armadillo Hat</t>
+  </si>
+  <si>
+    <t>Green Armadillo Hat</t>
+  </si>
+  <si>
+    <t>SCBC Tree Hat</t>
+  </si>
+  <si>
+    <t>YS SCBC est. 1974</t>
+  </si>
+  <si>
+    <t>YM SCBC est. 1974</t>
+  </si>
+  <si>
+    <t>YL Navy Sunglasses</t>
+  </si>
+  <si>
+    <t>S Yellow/Green</t>
+  </si>
+  <si>
+    <t>YM Yellow/Green</t>
+  </si>
+  <si>
+    <t>YM Red Circle</t>
+  </si>
+  <si>
+    <t>YL Grey Sunglasses</t>
+  </si>
+  <si>
+    <t>YS Blue est. 1974</t>
+  </si>
+  <si>
+    <t>S White Floral</t>
+  </si>
+  <si>
+    <t>YM White Floral</t>
+  </si>
+  <si>
+    <t>YL Grey Horse</t>
+  </si>
+  <si>
+    <t>S Grey Horse</t>
+  </si>
+  <si>
+    <t>M Grey Horse</t>
+  </si>
+  <si>
+    <t>YS Grey G&gt;^Lows</t>
+  </si>
+  <si>
+    <t>YM Grey G&gt;^Lows</t>
+  </si>
+  <si>
+    <t>S Forest Green G&gt;^Lows</t>
+  </si>
+  <si>
+    <t>YL Neon Green G&gt;^Lows</t>
+  </si>
+  <si>
+    <t>YM Grey Arrowhead</t>
+  </si>
+  <si>
+    <t>Hershey's (Cookies n Cream)</t>
+  </si>
+  <si>
+    <t>Hershey's (Original)</t>
+  </si>
+  <si>
+    <t>Kit Kat</t>
+  </si>
+  <si>
+    <t>Sour Patch (Watermelon)</t>
+  </si>
+  <si>
+    <t>Sour Patch (Original)</t>
+  </si>
+  <si>
+    <t>3 Musketeers</t>
+  </si>
+  <si>
+    <t>Milky Way</t>
+  </si>
+  <si>
+    <t>Snickers (Almond)</t>
+  </si>
+  <si>
+    <t>Twix</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>Reese's</t>
+  </si>
+  <si>
+    <t>Skittles (Original)</t>
+  </si>
+  <si>
+    <t>Skittles (Wild Berry)</t>
+  </si>
+  <si>
+    <t>Skittles (Sour)</t>
+  </si>
+  <si>
+    <t>Starburst (Original)</t>
+  </si>
+  <si>
+    <t>Starburst (Tropical)</t>
+  </si>
+  <si>
+    <t>Mott's Fruit Snacks</t>
+  </si>
+  <si>
+    <t>Fruit Gushers</t>
+  </si>
+  <si>
+    <t>Cheez Its</t>
+  </si>
+  <si>
+    <t>Pringles (Original)</t>
+  </si>
+  <si>
+    <t>Pringles (Cheddar)</t>
+  </si>
+  <si>
+    <t>Pringles (Sour Cream)</t>
+  </si>
+  <si>
+    <t>Takis</t>
+  </si>
+  <si>
+    <t>Oreos</t>
+  </si>
+  <si>
+    <t>Hot Cheetos</t>
+  </si>
+  <si>
+    <t>Fruit Roll Ups</t>
+  </si>
+  <si>
+    <t>Air Heads</t>
+  </si>
+  <si>
+    <t>M&amp;M peanut</t>
+  </si>
+  <si>
+    <t>Pixie Sticks</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Diet Coke</t>
+  </si>
+  <si>
+    <t>Sunkist</t>
+  </si>
+  <si>
+    <t>Dr Pepper</t>
+  </si>
+  <si>
+    <t>Gatorade (Blue)</t>
+  </si>
+  <si>
+    <t>Gatorade (Red)</t>
+  </si>
+  <si>
+    <t>Root Beer</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Diet Dr Pepper</t>
+  </si>
+  <si>
+    <t>FAKE ITEM</t>
+  </si>
+  <si>
+    <t>Otter Pops (Red)</t>
+  </si>
+  <si>
+    <t>Otter Pops (Orange)</t>
+  </si>
+  <si>
+    <t>Otter Pops (Green)</t>
+  </si>
+  <si>
+    <t>Otter Pops (Pink)</t>
+  </si>
+  <si>
+    <t>Otter Pops (Blue)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,6 +427,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -67,44 +449,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -132,14 +514,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -167,6 +566,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -178,225 +594,167 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C1" t="str">
-        <v>UnitPrice</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>YS Green Horse</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -405,9 +763,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>YM Green Horse</v>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -416,9 +774,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>YL Green Horse</v>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -427,9 +785,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>S Green Horse</v>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -438,9 +796,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>M Green Horse</v>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -449,9 +807,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>L Green Horse</v>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -460,9 +818,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>XL Green Horse</v>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -471,9 +829,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2XL Green Horse</v>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -482,9 +840,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>YS Maroon Horse</v>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -493,9 +851,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>YM Maroon Horse</v>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -504,9 +862,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>YL Maroon Horse</v>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -515,9 +873,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>S Maroon Horse</v>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -526,9 +884,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>L Maroon Horse</v>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -537,9 +895,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>YS Grey Circle SCBC</v>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -548,9 +906,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>YM Grey Circle SCBC</v>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -559,9 +917,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>YL Grey Circle SCBC</v>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -570,9 +928,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>S Grey Circle SCBC</v>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -581,9 +939,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>M Grey Circle SCBC</v>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -592,9 +950,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>L Grey Circle SCBC</v>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -603,9 +961,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>2XL Grey Circle SCBC</v>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -614,9 +972,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>YS Navy Circle</v>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -625,9 +983,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>YM Navy Circle</v>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>15</v>
@@ -636,9 +994,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>YL Navy Circle</v>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -647,9 +1005,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>S Navy Circle</v>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -658,9 +1016,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>M Navy Circle</v>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -669,9 +1027,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>L Navy Circle</v>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -680,9 +1038,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>YS Red Activities</v>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -691,9 +1049,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>YM Red Activities</v>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -702,9 +1060,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>YL Red Activities</v>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>18</v>
@@ -713,9 +1071,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>S Red Activities</v>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -724,9 +1082,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>M Red Activities</v>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -735,9 +1093,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>L Red Activities</v>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -746,9 +1104,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2XL Red Activities</v>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -757,9 +1115,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>YS Blue Activities</v>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -768,9 +1126,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>YM Blue Activities</v>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -779,9 +1137,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>YL Blue Activities</v>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -790,9 +1148,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>S Purple Compass</v>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -801,9 +1159,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>L Purple Compass</v>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -812,9 +1170,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>S Peach Pebbles</v>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -823,9 +1181,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>YM Red Pebbles</v>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -834,9 +1192,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>YM Yellow '74</v>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -845,9 +1203,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>S Gray Pebbles</v>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -856,9 +1214,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>YS Blue Pebbles</v>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -867,9 +1225,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>YM Blue Pebbles</v>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -878,9 +1236,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Gray 1974 Hat</v>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -889,9 +1247,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Blue 1974 Hat</v>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -900,9 +1258,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Orange 1974 Hat</v>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -911,9 +1269,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Brown 1974 Hat</v>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -922,9 +1280,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Gray Armadillo Hat</v>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -933,9 +1291,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Green Armadillo Hat</v>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -944,9 +1302,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>SCBC Tree Hat</v>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -955,9 +1313,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>YS SCBC est. 1974</v>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -966,9 +1324,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>YM SCBC est. 1974</v>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -977,9 +1335,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>YL Navy Sunglasses</v>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -988,9 +1346,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>S Yellow/Green</v>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -999,9 +1357,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>YM Yellow/Green</v>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -1010,9 +1368,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>YM Red Circle</v>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
       </c>
       <c r="B58">
         <v>19</v>
@@ -1021,9 +1379,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>YL Grey Sunglasses</v>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -1032,9 +1390,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>YS Blue est. 1974</v>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -1043,9 +1401,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>S White Floral</v>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -1054,9 +1412,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>YM White Floral</v>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
       </c>
       <c r="B62">
         <v>28</v>
@@ -1065,9 +1423,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>YL Grey Horse</v>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1076,9 +1434,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>S Grey Horse</v>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1087,9 +1445,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>M Grey Horse</v>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1098,9 +1456,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>YS Grey G&gt;^Lows</v>
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1109,9 +1467,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>YM Grey G&gt;^Lows</v>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1120,9 +1478,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>S Forest Green G&gt;^Lows</v>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1131,9 +1489,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>YL Neon Green G&gt;^Lows</v>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1142,9 +1500,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>YM Grey Arrowhead</v>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -1154,88 +1512,95 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C70"/>
+    <ignoredError sqref="A1:C70" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C1" t="str">
-        <v>UnitPrice</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Hershey's (Cookies n Cream)</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
       </c>
       <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Hershey's (Original)</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Kit Kat</v>
-      </c>
-      <c r="B4">
-        <v>83</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Sour Patch (Watermelon)</v>
-      </c>
-      <c r="B5">
-        <v>69</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Sour Patch (Original)</v>
-      </c>
-      <c r="B6">
-        <v>59</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>3 Musketeers</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1244,20 +1609,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Milky Way</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Snickers (Almond)</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1266,9 +1631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Twix</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
       </c>
       <c r="B10">
         <v>124</v>
@@ -1277,9 +1642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Snickers</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1288,20 +1653,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Reese's</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Skittles (Original)</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>83</v>
       </c>
       <c r="B13">
         <v>93</v>
@@ -1310,9 +1675,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Skittles (Wild Berry)</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>84</v>
       </c>
       <c r="B14">
         <v>87</v>
@@ -1321,9 +1686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Skittles (Sour)</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>85</v>
       </c>
       <c r="B15">
         <v>40</v>
@@ -1332,42 +1697,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Starburst (Original)</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Starburst (Tropical)</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Mott's Fruit Snacks</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Fruit Gushers</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1376,9 +1741,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Cheez Its</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1387,31 +1752,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Pringles (Original)</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Pringles (Cheddar)</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Pringles (Sour Cream)</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>93</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1420,246 +1785,255 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Takis</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>94</v>
       </c>
       <c r="B24">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Oreos</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Hot Cheetos</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>96</v>
       </c>
       <c r="B26">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Fruit Roll Ups</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
       </c>
       <c r="B27">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Air Heads</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>98</v>
       </c>
       <c r="B28">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>M&amp;M peanut</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>99</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Pixie Sticks</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
+    <ignoredError sqref="A1:A2 A4:A30 A3 C3 C1:C2 C4:C30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C1" t="str">
-        <v>UnitPrice</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Coke</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>101</v>
       </c>
       <c r="B2">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Diet Coke</v>
-      </c>
-      <c r="B3">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Sunkist</v>
-      </c>
-      <c r="B4">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Dr Pepper</v>
-      </c>
-      <c r="B5">
-        <v>106</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Gatorade (Blue)</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Gatorade (Red)</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Root Beer</v>
-      </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Sprite</v>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Water</v>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Diet Dr Pepper</v>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>110</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+    <ignoredError sqref="A1:A11 C1:C11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="C1" t="str">
-        <v>UnitPrice</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>FAKE ITEM</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>111</v>
       </c>
       <c r="B2">
         <v>183</v>
@@ -1668,9 +2042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Otter Pops (Red)</v>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>112</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -1679,9 +2053,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Otter Pops (Orange)</v>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>113</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -1690,9 +2064,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Otter Pops (Green)</v>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -1701,9 +2075,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Otter Pops (Pink)</v>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
       </c>
       <c r="B6">
         <v>39</v>
@@ -1712,9 +2086,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Otter Pops (Blue)</v>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -1724,8 +2098,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>